--- a/data/trans_dic/P25_8-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_8-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida</t>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 20,68</t>
+          <t>4,82; 29,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 19,7</t>
+          <t>2,79; 25,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,93; 27,87</t>
+          <t>5,12; 32,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,54; 32,36</t>
+          <t>1,9; 24,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,98; 27,34</t>
+          <t>13,29; 36,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 62,84</t>
+          <t>15,05; 38,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,16; 24,43</t>
+          <t>12,79; 36,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 20,99</t>
+          <t>16,21; 42,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 44,44</t>
+          <t>11,41; 28,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11,35; 28,01</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11,98; 30,98</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 29,27</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>23,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,05%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,01; 22,94</t>
+          <t>14,08; 28,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,14; 22,53</t>
+          <t>9,66; 21,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 29,74</t>
+          <t>12,7; 26,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,7; 29,66</t>
+          <t>12,4; 27,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 21,93</t>
+          <t>20,12; 33,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,49; 33,09</t>
+          <t>13,44; 24,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 24,51</t>
+          <t>18,53; 31,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,51; 20,73</t>
+          <t>21,19; 34,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,4; 28,85</t>
+          <t>19,08; 28,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12,78; 21,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17,02; 26,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 28,73</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>26,77%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,63; 34,13</t>
+          <t>19,88; 38,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,19; 25,25</t>
+          <t>15,46; 30,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,59; 27,25</t>
+          <t>12,85; 29,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,51; 31,23</t>
+          <t>18,3; 35,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,39; 25,97</t>
+          <t>19,03; 32,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,45; 30,45</t>
+          <t>13,41; 26,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,66; 30,61</t>
+          <t>16,91; 31,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,44; 24,11</t>
+          <t>21,34; 37,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,09; 26,97</t>
+          <t>21,78; 33,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 25,02</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,53; 27,95</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,18; 33,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 22,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 20,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 25,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,16; 27,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 21,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 33,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 24,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 20,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,54; 28,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22,55%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,51%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25,84%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17,35; 28,11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 21,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,77; 23,63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 24,96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21,83; 30,4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16,13; 23,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 28,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23,27; 33,81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 27,96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 21,46</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 24,48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20,73; 28,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19450</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11072</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19043</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19723</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33279</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>29074</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27567</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>52454</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52729</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40146</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46609</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>72177</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6218; 38018</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2942; 27232</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5846; 36541</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3382; 43939</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18623; 50600</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17388; 44789</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15654; 44908</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30043; 79025</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30681; 75936</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25069; 61883</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28343; 73270</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38334; 106243</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>86456</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55787</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71275</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>96294</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>122397</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>71633</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>91664</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>136857</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>208852</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>127420</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>162938</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>233151</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59729; 119872</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36357; 82581</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50177; 102989</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>64092; 140804</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>92431; 153244</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>50952; 94428</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>69520; 117855</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>104810; 172643</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>168577; 251232</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>96508; 162790</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>131078; 204361</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>189624; 290587</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>93887</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61044</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>54923</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>93499</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>109927</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>64052</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>76873</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>113578</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>203814</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>125096</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>131796</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>207077</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>66164; 129054</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>43655; 84841</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35377; 81964</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>64657; 126526</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81538; 141246</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>46218; 90074</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>55372; 102823</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>85244; 149906</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>165847; 253505</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>98760; 156861</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>105682; 168516</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>166971; 253554</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>199793</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>127902</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>145240</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>209516</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>265602</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>164760</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>196104</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>302889</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>465395</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>292661</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>341344</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>512405</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>153698; 249033</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>96869; 163192</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>108074; 185422</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>155282; 261521</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>224338; 312440</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>135410; 199568</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>160401; 231692</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>251200; 365007</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>400424; 535151</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>246641; 344056</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>290924; 393995</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>440897; 597769</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
